--- a/data/pca/factorExposure/factorExposure_2009-08-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-08-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01777267617352571</v>
+        <v>0.01707751340190941</v>
       </c>
       <c r="C2">
-        <v>0.001615133522473514</v>
+        <v>0.001054981559496337</v>
       </c>
       <c r="D2">
-        <v>-0.003829144101868992</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009634347806445702</v>
+      </c>
+      <c r="E2">
+        <v>0.002159893978935453</v>
+      </c>
+      <c r="F2">
+        <v>0.01411519301483773</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09441510208737046</v>
+        <v>0.09318055551958254</v>
       </c>
       <c r="C4">
-        <v>0.02066864740189313</v>
+        <v>0.01462356307010497</v>
       </c>
       <c r="D4">
-        <v>-0.0669158780037354</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08358292293533753</v>
+      </c>
+      <c r="E4">
+        <v>0.02847662157056772</v>
+      </c>
+      <c r="F4">
+        <v>-0.03324932569026028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1489549114055273</v>
+        <v>0.1597940978932766</v>
       </c>
       <c r="C6">
-        <v>0.02797671383702819</v>
+        <v>0.02735960351212995</v>
       </c>
       <c r="D6">
-        <v>0.02642113569151975</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02532000015955579</v>
+      </c>
+      <c r="E6">
+        <v>0.009087840704831434</v>
+      </c>
+      <c r="F6">
+        <v>-0.04057190881841367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06347520352856589</v>
+        <v>0.063348199728957</v>
       </c>
       <c r="C7">
-        <v>0.002820733569727823</v>
+        <v>-0.001658042119222943</v>
       </c>
       <c r="D7">
-        <v>-0.04006110701608007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05234057870712842</v>
+      </c>
+      <c r="E7">
+        <v>0.01192217034135183</v>
+      </c>
+      <c r="F7">
+        <v>-0.04669592174900464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06354361926148644</v>
+        <v>0.05776728530784233</v>
       </c>
       <c r="C8">
-        <v>-0.01071570571197296</v>
+        <v>-0.01301518776714262</v>
       </c>
       <c r="D8">
-        <v>-0.022949489403874</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03146579310142803</v>
+      </c>
+      <c r="E8">
+        <v>0.01759693310271736</v>
+      </c>
+      <c r="F8">
+        <v>0.02539682003044761</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07288915886519889</v>
+        <v>0.07105148042617124</v>
       </c>
       <c r="C9">
-        <v>0.01702773845220833</v>
+        <v>0.01029042263208886</v>
       </c>
       <c r="D9">
-        <v>-0.06955076277612032</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08715096159342799</v>
+      </c>
+      <c r="E9">
+        <v>0.02422981717144142</v>
+      </c>
+      <c r="F9">
+        <v>-0.04715536111795086</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.0831481649909311</v>
+        <v>0.08969044936849355</v>
       </c>
       <c r="C10">
-        <v>0.01304415205101565</v>
+        <v>0.02076496108796617</v>
       </c>
       <c r="D10">
-        <v>0.1676562212224136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1629359460070851</v>
+      </c>
+      <c r="E10">
+        <v>-0.03207007829029309</v>
+      </c>
+      <c r="F10">
+        <v>0.05749213068393576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09311387373708617</v>
+        <v>0.08813885739264139</v>
       </c>
       <c r="C11">
-        <v>0.0178116436420837</v>
+        <v>0.01063201558076914</v>
       </c>
       <c r="D11">
-        <v>-0.09801869402288685</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1169585771753504</v>
+      </c>
+      <c r="E11">
+        <v>0.04624638035057187</v>
+      </c>
+      <c r="F11">
+        <v>-0.02258844493085211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09922463001946902</v>
+        <v>0.09147928467992554</v>
       </c>
       <c r="C12">
-        <v>0.01571506834048885</v>
+        <v>0.007931958983091993</v>
       </c>
       <c r="D12">
-        <v>-0.1020547392468583</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1317513733723807</v>
+      </c>
+      <c r="E12">
+        <v>0.04572537918115657</v>
+      </c>
+      <c r="F12">
+        <v>-0.03128610459483994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04426062664911447</v>
+        <v>0.04181995901686637</v>
       </c>
       <c r="C13">
-        <v>0.005929569114160518</v>
+        <v>0.002476966784555712</v>
       </c>
       <c r="D13">
-        <v>-0.03149423733533804</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.0535730127366324</v>
+      </c>
+      <c r="E13">
+        <v>-0.003513053930526442</v>
+      </c>
+      <c r="F13">
+        <v>-0.001249267828005248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02001516629823956</v>
+        <v>0.02380495886342745</v>
       </c>
       <c r="C14">
-        <v>0.01515807676730504</v>
+        <v>0.01377397617385934</v>
       </c>
       <c r="D14">
-        <v>-0.02537171306150922</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0334236197031476</v>
+      </c>
+      <c r="E14">
+        <v>0.01896057541819245</v>
+      </c>
+      <c r="F14">
+        <v>-0.01378433193958821</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03455313704972688</v>
+        <v>0.03295054930155262</v>
       </c>
       <c r="C15">
-        <v>0.007698077747286108</v>
+        <v>0.004726462017417657</v>
       </c>
       <c r="D15">
-        <v>-0.03091384499831582</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04505415901097961</v>
+      </c>
+      <c r="E15">
+        <v>0.005974185560785054</v>
+      </c>
+      <c r="F15">
+        <v>-0.02524478733442168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07836640646337208</v>
+        <v>0.07395951820279148</v>
       </c>
       <c r="C16">
-        <v>0.008558791710770182</v>
+        <v>0.001143852141767746</v>
       </c>
       <c r="D16">
-        <v>-0.1004459005928592</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.127508176221012</v>
+      </c>
+      <c r="E16">
+        <v>0.06047268474019438</v>
+      </c>
+      <c r="F16">
+        <v>-0.02718206966395769</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0007339376586912897</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0002725736744793383</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001641317390554615</v>
+      </c>
+      <c r="E17">
+        <v>0.001123019117528255</v>
+      </c>
+      <c r="F17">
+        <v>0.002516256919623675</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01739275814930351</v>
+        <v>0.03812320729207348</v>
       </c>
       <c r="C18">
-        <v>-0.003137899233511912</v>
+        <v>-0.0028772299914332</v>
       </c>
       <c r="D18">
-        <v>-0.03001280681736333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01573846674314467</v>
+      </c>
+      <c r="E18">
+        <v>-0.008008779285998338</v>
+      </c>
+      <c r="F18">
+        <v>0.008698455594688828</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06623196208539542</v>
+        <v>0.06312560616820545</v>
       </c>
       <c r="C20">
-        <v>0.006607706005419718</v>
+        <v>0.0004464550019927444</v>
       </c>
       <c r="D20">
-        <v>-0.052705630149074</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07698179891004547</v>
+      </c>
+      <c r="E20">
+        <v>0.05584402706073256</v>
+      </c>
+      <c r="F20">
+        <v>-0.0298806753102792</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04037963036305577</v>
+        <v>0.04088085347451259</v>
       </c>
       <c r="C21">
-        <v>0.009838926309814382</v>
+        <v>0.006336540595281411</v>
       </c>
       <c r="D21">
-        <v>-0.0307801830703632</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03875555791514825</v>
+      </c>
+      <c r="E21">
+        <v>-0.0004098513217751419</v>
+      </c>
+      <c r="F21">
+        <v>0.02357156371563747</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.0405541071589727</v>
+        <v>0.04233514650085819</v>
       </c>
       <c r="C22">
-        <v>0.0009508671833447835</v>
+        <v>0.0009681694378850572</v>
       </c>
       <c r="D22">
-        <v>0.01132903563173577</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.003941334893951183</v>
+      </c>
+      <c r="E22">
+        <v>0.03536197613018071</v>
+      </c>
+      <c r="F22">
+        <v>0.04051050859888135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04051732635533903</v>
+        <v>0.0423109467169189</v>
       </c>
       <c r="C23">
-        <v>0.0009408724588444587</v>
+        <v>0.0009595825953357812</v>
       </c>
       <c r="D23">
-        <v>0.01130808453579936</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.00395685178776924</v>
+      </c>
+      <c r="E23">
+        <v>0.03554473934125341</v>
+      </c>
+      <c r="F23">
+        <v>0.04047091547591681</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08457424142700563</v>
+        <v>0.07992185475877706</v>
       </c>
       <c r="C24">
-        <v>0.008801933147285477</v>
+        <v>0.001843401291280804</v>
       </c>
       <c r="D24">
-        <v>-0.1050548177764323</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1198501238353776</v>
+      </c>
+      <c r="E24">
+        <v>0.04847112744457115</v>
+      </c>
+      <c r="F24">
+        <v>-0.02957504025566459</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08962369730836411</v>
+        <v>0.08475695167436582</v>
       </c>
       <c r="C25">
-        <v>0.0113326855684694</v>
+        <v>0.004412752938583389</v>
       </c>
       <c r="D25">
-        <v>-0.0914264224920829</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1094030881316264</v>
+      </c>
+      <c r="E25">
+        <v>0.03212622126462211</v>
+      </c>
+      <c r="F25">
+        <v>-0.02630402201628794</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05933876241764208</v>
+        <v>0.059228322034852</v>
       </c>
       <c r="C26">
-        <v>0.01794456041614236</v>
+        <v>0.0145518887356604</v>
       </c>
       <c r="D26">
-        <v>-0.01836199216392296</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0421989686894459</v>
+      </c>
+      <c r="E26">
+        <v>0.02967042725419893</v>
+      </c>
+      <c r="F26">
+        <v>0.005820403919549454</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1303683863711603</v>
+        <v>0.1414145955673848</v>
       </c>
       <c r="C28">
-        <v>0.01190000291791013</v>
+        <v>0.02226890067850932</v>
       </c>
       <c r="D28">
-        <v>0.2726830201261364</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2613396810229806</v>
+      </c>
+      <c r="E28">
+        <v>-0.06744481421524434</v>
+      </c>
+      <c r="F28">
+        <v>-0.003313208612292083</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02634539739758883</v>
+        <v>0.02863377859604584</v>
       </c>
       <c r="C29">
-        <v>0.009754264159649051</v>
+        <v>0.00881058573511999</v>
       </c>
       <c r="D29">
-        <v>-0.02257428430511726</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03106342933326801</v>
+      </c>
+      <c r="E29">
+        <v>0.01382890792157225</v>
+      </c>
+      <c r="F29">
+        <v>0.01266177040809503</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.0659750315765034</v>
+        <v>0.05914870023564158</v>
       </c>
       <c r="C30">
-        <v>0.0101991770482476</v>
+        <v>0.002740424538702952</v>
       </c>
       <c r="D30">
-        <v>-0.06151408146955151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08811020700981648</v>
+      </c>
+      <c r="E30">
+        <v>0.0139468202483642</v>
+      </c>
+      <c r="F30">
+        <v>-0.07961775629247131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05132380658841856</v>
+        <v>0.051336777900104</v>
       </c>
       <c r="C31">
-        <v>0.01711596306174195</v>
+        <v>0.01585282636180415</v>
       </c>
       <c r="D31">
-        <v>-0.01998937706111914</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0244072069032171</v>
+      </c>
+      <c r="E31">
+        <v>0.0286955882404164</v>
+      </c>
+      <c r="F31">
+        <v>0.00147051140595348</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04784008702646602</v>
+        <v>0.05140336449222258</v>
       </c>
       <c r="C32">
-        <v>0.002305169373399127</v>
+        <v>-0.001625971633003724</v>
       </c>
       <c r="D32">
-        <v>-0.0202153187182836</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03593491944578674</v>
+      </c>
+      <c r="E32">
+        <v>0.03438212692568912</v>
+      </c>
+      <c r="F32">
+        <v>-0.00336670055548936</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09328826836516581</v>
+        <v>0.08902659578137838</v>
       </c>
       <c r="C33">
-        <v>0.01403813878937051</v>
+        <v>0.006452018657500265</v>
       </c>
       <c r="D33">
-        <v>-0.07839774300763616</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.102375051802686</v>
+      </c>
+      <c r="E33">
+        <v>0.0453152331578132</v>
+      </c>
+      <c r="F33">
+        <v>-0.0390692784213393</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07140653456712406</v>
+        <v>0.06794679594775023</v>
       </c>
       <c r="C34">
-        <v>0.01609141133280747</v>
+        <v>0.01010769354406027</v>
       </c>
       <c r="D34">
-        <v>-0.0860892200038957</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1099399560313848</v>
+      </c>
+      <c r="E34">
+        <v>0.035221475496423</v>
+      </c>
+      <c r="F34">
+        <v>-0.0329275573693973</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02410893975999079</v>
+        <v>0.02603215730879341</v>
       </c>
       <c r="C35">
-        <v>0.002955532420839643</v>
+        <v>0.002740604122199963</v>
       </c>
       <c r="D35">
-        <v>-0.006526713708622655</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01210345923677634</v>
+      </c>
+      <c r="E35">
+        <v>0.01282834529805057</v>
+      </c>
+      <c r="F35">
+        <v>-0.001141877074568874</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02662694708048942</v>
+        <v>0.02737799276430117</v>
       </c>
       <c r="C36">
-        <v>0.007885274773074049</v>
+        <v>0.006795179352482111</v>
       </c>
       <c r="D36">
-        <v>-0.03860360350861588</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03965193619199241</v>
+      </c>
+      <c r="E36">
+        <v>0.01657878797497675</v>
+      </c>
+      <c r="F36">
+        <v>-0.01470265006956728</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-1.254818272284188e-05</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0005449231251436307</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002430746204680599</v>
+      </c>
+      <c r="E37">
+        <v>-0.000516042585367131</v>
+      </c>
+      <c r="F37">
+        <v>0.002132816729698278</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1171847917626849</v>
+        <v>0.1038952607922989</v>
       </c>
       <c r="C39">
-        <v>0.02469969995767505</v>
+        <v>0.01588074704178596</v>
       </c>
       <c r="D39">
-        <v>-0.1406481138024615</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1536835522178243</v>
+      </c>
+      <c r="E39">
+        <v>0.0591401206376197</v>
+      </c>
+      <c r="F39">
+        <v>-0.03079952894910215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03984934987491137</v>
+        <v>0.04359846281218874</v>
       </c>
       <c r="C40">
-        <v>0.00949016591811387</v>
+        <v>0.007435161070980522</v>
       </c>
       <c r="D40">
-        <v>-0.01078468528589402</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03047360550756339</v>
+      </c>
+      <c r="E40">
+        <v>0.001713710380781982</v>
+      </c>
+      <c r="F40">
+        <v>0.01914926162926305</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02537873272167775</v>
+        <v>0.02758626753395605</v>
       </c>
       <c r="C41">
-        <v>0.007150603539840088</v>
+        <v>0.00689488743677569</v>
       </c>
       <c r="D41">
-        <v>-0.009530237593493014</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01077321864621598</v>
+      </c>
+      <c r="E41">
+        <v>0.01196261600866377</v>
+      </c>
+      <c r="F41">
+        <v>0.005765589022972946</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04222866628070372</v>
+        <v>0.04088309530082021</v>
       </c>
       <c r="C43">
-        <v>0.008172718316525615</v>
+        <v>0.007278434694238307</v>
       </c>
       <c r="D43">
-        <v>-0.01406042458124986</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0188137710144566</v>
+      </c>
+      <c r="E43">
+        <v>0.02531070944616779</v>
+      </c>
+      <c r="F43">
+        <v>0.01284878940483536</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.07444455376258909</v>
+        <v>0.07930685348112305</v>
       </c>
       <c r="C44">
-        <v>0.02641399063379155</v>
+        <v>0.01906374245650268</v>
       </c>
       <c r="D44">
-        <v>-0.08018575736666418</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09716581847903567</v>
+      </c>
+      <c r="E44">
+        <v>0.06146670564110573</v>
+      </c>
+      <c r="F44">
+        <v>-0.1586022466604461</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02138977981956398</v>
+        <v>0.0233525443533408</v>
       </c>
       <c r="C46">
-        <v>0.003861696784304451</v>
+        <v>0.003374785803706095</v>
       </c>
       <c r="D46">
-        <v>-0.005386567970770507</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01277070236502411</v>
+      </c>
+      <c r="E46">
+        <v>0.02604327137897815</v>
+      </c>
+      <c r="F46">
+        <v>0.007177802269146273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05324835396297479</v>
+        <v>0.05240207821467904</v>
       </c>
       <c r="C47">
-        <v>0.004640623529788406</v>
+        <v>0.003935817164237037</v>
       </c>
       <c r="D47">
-        <v>-0.006748752153172702</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01134604680707305</v>
+      </c>
+      <c r="E47">
+        <v>0.02320222392298616</v>
+      </c>
+      <c r="F47">
+        <v>0.03224970782134216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04971020661418101</v>
+        <v>0.05031210299485723</v>
       </c>
       <c r="C48">
-        <v>0.005116424644871417</v>
+        <v>0.002180444757458986</v>
       </c>
       <c r="D48">
-        <v>-0.04096234951212162</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05062093768474481</v>
+      </c>
+      <c r="E48">
+        <v>-0.004781614570881298</v>
+      </c>
+      <c r="F48">
+        <v>-0.008580333872402287</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2021985234981646</v>
+        <v>0.2003919772517303</v>
       </c>
       <c r="C49">
-        <v>0.02183545313111729</v>
+        <v>0.01923685996342223</v>
       </c>
       <c r="D49">
-        <v>0.0174466569931006</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007308361157548263</v>
+      </c>
+      <c r="E49">
+        <v>0.0310480553144061</v>
+      </c>
+      <c r="F49">
+        <v>-0.04053109337141324</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.05056944113204543</v>
+        <v>0.05183065900026821</v>
       </c>
       <c r="C50">
-        <v>0.01313559579399809</v>
+        <v>0.01156313543607401</v>
       </c>
       <c r="D50">
-        <v>-0.01949261005129067</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0235517790019493</v>
+      </c>
+      <c r="E50">
+        <v>0.02991749704845442</v>
+      </c>
+      <c r="F50">
+        <v>-0.009760389676542013</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.15641200001512</v>
+        <v>0.1501637662864969</v>
       </c>
       <c r="C52">
-        <v>0.02017607621133796</v>
+        <v>0.01832844998921621</v>
       </c>
       <c r="D52">
-        <v>-0.0484005753718544</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04069698008159522</v>
+      </c>
+      <c r="E52">
+        <v>0.02089564415812752</v>
+      </c>
+      <c r="F52">
+        <v>-0.04389426527524758</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1730259590412246</v>
+        <v>0.1710509224023312</v>
       </c>
       <c r="C53">
-        <v>0.01996163717420934</v>
+        <v>0.02047647410114874</v>
       </c>
       <c r="D53">
-        <v>-0.01210597901885602</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003176209141574379</v>
+      </c>
+      <c r="E53">
+        <v>0.02797453622521013</v>
+      </c>
+      <c r="F53">
+        <v>-0.07343959403166561</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01799635182725445</v>
+        <v>0.02078949172413024</v>
       </c>
       <c r="C54">
-        <v>0.01267109169807701</v>
+        <v>0.01113165595368145</v>
       </c>
       <c r="D54">
-        <v>-0.02724073502990956</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03460851332771823</v>
+      </c>
+      <c r="E54">
+        <v>0.02221090543673162</v>
+      </c>
+      <c r="F54">
+        <v>0.00167735108535092</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.115733197933372</v>
+        <v>0.1153902800330916</v>
       </c>
       <c r="C55">
-        <v>0.01783352699834998</v>
+        <v>0.01802131297726181</v>
       </c>
       <c r="D55">
-        <v>-0.01042832076151363</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.006606392570942948</v>
+      </c>
+      <c r="E55">
+        <v>0.0233753476574458</v>
+      </c>
+      <c r="F55">
+        <v>-0.04644291890059442</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.179127184675804</v>
+        <v>0.1770902225732549</v>
       </c>
       <c r="C56">
-        <v>0.01756154781682264</v>
+        <v>0.01848163973225507</v>
       </c>
       <c r="D56">
-        <v>-0.00930023783344951</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.004200798755746066</v>
+      </c>
+      <c r="E56">
+        <v>0.03162862739905276</v>
+      </c>
+      <c r="F56">
+        <v>-0.05334254675670445</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04940030241333503</v>
+        <v>0.04543535973735764</v>
       </c>
       <c r="C58">
-        <v>0.005855341030480058</v>
+        <v>-0.000236632358714234</v>
       </c>
       <c r="D58">
-        <v>-0.05526718964457907</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07179602543732487</v>
+      </c>
+      <c r="E58">
+        <v>0.03322939440854007</v>
+      </c>
+      <c r="F58">
+        <v>0.03649706639693694</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.160433656850186</v>
+        <v>0.1665743058372288</v>
       </c>
       <c r="C59">
-        <v>0.01357397259055072</v>
+        <v>0.02276291442023842</v>
       </c>
       <c r="D59">
-        <v>0.2243412151447006</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2180201714459285</v>
+      </c>
+      <c r="E59">
+        <v>-0.04713426332799446</v>
+      </c>
+      <c r="F59">
+        <v>0.03471704962306993</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2377615262778885</v>
+        <v>0.2322710896394762</v>
       </c>
       <c r="C60">
-        <v>0.001733536491606824</v>
+        <v>-0.001441673030875345</v>
       </c>
       <c r="D60">
-        <v>-0.04518690475357791</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03856536915275822</v>
+      </c>
+      <c r="E60">
+        <v>0.00672124181009756</v>
+      </c>
+      <c r="F60">
+        <v>0.0003299192104680606</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08823971345407976</v>
+        <v>0.07991461608765875</v>
       </c>
       <c r="C61">
-        <v>0.01826326620389826</v>
+        <v>0.01136355166202116</v>
       </c>
       <c r="D61">
-        <v>-0.09962954622974408</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1177732358949511</v>
+      </c>
+      <c r="E61">
+        <v>0.03920075312150893</v>
+      </c>
+      <c r="F61">
+        <v>-0.01346635906234715</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1702014864268004</v>
+        <v>0.1685581113771995</v>
       </c>
       <c r="C62">
-        <v>0.02144908517645303</v>
+        <v>0.02106071671332468</v>
       </c>
       <c r="D62">
-        <v>-0.006168353233701102</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.004378349508403092</v>
+      </c>
+      <c r="E62">
+        <v>0.03213740897662803</v>
+      </c>
+      <c r="F62">
+        <v>-0.03752360509417051</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04388323023246142</v>
+        <v>0.04603479952278757</v>
       </c>
       <c r="C63">
-        <v>0.005969816743988816</v>
+        <v>0.001787717900228403</v>
       </c>
       <c r="D63">
-        <v>-0.0439571798498509</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05978172581589332</v>
+      </c>
+      <c r="E63">
+        <v>0.02413378472424367</v>
+      </c>
+      <c r="F63">
+        <v>-0.003514540657641656</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1127157134797175</v>
+        <v>0.1106362586042811</v>
       </c>
       <c r="C64">
-        <v>0.01511727005088849</v>
+        <v>0.01172193417143751</v>
       </c>
       <c r="D64">
-        <v>-0.03158334944684993</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04337531985008493</v>
+      </c>
+      <c r="E64">
+        <v>0.02256131981936764</v>
+      </c>
+      <c r="F64">
+        <v>-0.02606989983298662</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1392618136546858</v>
+        <v>0.1511579884811895</v>
       </c>
       <c r="C65">
-        <v>0.03368739507978811</v>
+        <v>0.03447611049312743</v>
       </c>
       <c r="D65">
-        <v>0.04993612359281592</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04554326503991039</v>
+      </c>
+      <c r="E65">
+        <v>0.004715950580620692</v>
+      </c>
+      <c r="F65">
+        <v>-0.03529342875921921</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1399230191887949</v>
+        <v>0.1236862329606986</v>
       </c>
       <c r="C66">
-        <v>0.02285028969156382</v>
+        <v>0.01395260759284746</v>
       </c>
       <c r="D66">
-        <v>-0.118890071859578</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1410745906723301</v>
+      </c>
+      <c r="E66">
+        <v>0.06399593373326409</v>
+      </c>
+      <c r="F66">
+        <v>-0.03407089919234545</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06310652806327605</v>
+        <v>0.05645874693136181</v>
       </c>
       <c r="C67">
-        <v>0.005327126707228204</v>
+        <v>0.002789735057954362</v>
       </c>
       <c r="D67">
-        <v>-0.05214023491142258</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05520887077997953</v>
+      </c>
+      <c r="E67">
+        <v>0.01592271179049328</v>
+      </c>
+      <c r="F67">
+        <v>0.02922686206624941</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1040996881295986</v>
+        <v>0.1162963883310915</v>
       </c>
       <c r="C68">
-        <v>0.02189716620383256</v>
+        <v>0.03305501481097571</v>
       </c>
       <c r="D68">
-        <v>0.2712728154310937</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2617238875027036</v>
+      </c>
+      <c r="E68">
+        <v>-0.08747281353214963</v>
+      </c>
+      <c r="F68">
+        <v>0.002558769389027608</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03979841972979963</v>
+        <v>0.03864347954416009</v>
       </c>
       <c r="C69">
-        <v>0.001857656765911733</v>
+        <v>0.001260413501249573</v>
       </c>
       <c r="D69">
-        <v>-0.006972531849279423</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.0076885472551742</v>
+      </c>
+      <c r="E69">
+        <v>0.02310817000421633</v>
+      </c>
+      <c r="F69">
+        <v>-0.001026088754092478</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06619997218753743</v>
+        <v>0.06609897583135359</v>
       </c>
       <c r="C70">
-        <v>-0.02458841060928151</v>
+        <v>-0.02746324847270238</v>
       </c>
       <c r="D70">
-        <v>0.008969067791492858</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02458792400242915</v>
+      </c>
+      <c r="E70">
+        <v>-0.0316923614814283</v>
+      </c>
+      <c r="F70">
+        <v>0.1754666873570969</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1222422611327462</v>
+        <v>0.1356922596825839</v>
       </c>
       <c r="C71">
-        <v>0.0255544583317697</v>
+        <v>0.03747575151982194</v>
       </c>
       <c r="D71">
-        <v>0.2862813978453878</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2723080734492392</v>
+      </c>
+      <c r="E71">
+        <v>-0.09765288659627235</v>
+      </c>
+      <c r="F71">
+        <v>-0.003843033400560279</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1385407361635143</v>
+        <v>0.143529578410518</v>
       </c>
       <c r="C72">
-        <v>0.02748807691012065</v>
+        <v>0.02754527248968622</v>
       </c>
       <c r="D72">
-        <v>-0.002239376396305047</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004641827132459821</v>
+      </c>
+      <c r="E72">
+        <v>0.03655232649962585</v>
+      </c>
+      <c r="F72">
+        <v>-0.03106716290714557</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2066615613091232</v>
+        <v>0.2041877538655349</v>
       </c>
       <c r="C73">
-        <v>0.01730356862477917</v>
+        <v>0.013462287550765</v>
       </c>
       <c r="D73">
-        <v>-0.01297672934463347</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01681416686457857</v>
+      </c>
+      <c r="E73">
+        <v>0.0636981960147148</v>
+      </c>
+      <c r="F73">
+        <v>-0.03991319329422451</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09348107363872077</v>
+        <v>0.09548266860258861</v>
       </c>
       <c r="C74">
-        <v>0.01395823887454565</v>
+        <v>0.01387964568489871</v>
       </c>
       <c r="D74">
-        <v>-0.01963713710606671</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01543518500637769</v>
+      </c>
+      <c r="E74">
+        <v>0.04331280206318467</v>
+      </c>
+      <c r="F74">
+        <v>-0.05559354206557274</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1338185677155434</v>
+        <v>0.1270339519152028</v>
       </c>
       <c r="C75">
-        <v>0.03024308550837483</v>
+        <v>0.02876542252717531</v>
       </c>
       <c r="D75">
-        <v>-0.02884392248878547</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02818104703651034</v>
+      </c>
+      <c r="E75">
+        <v>0.05601758986520375</v>
+      </c>
+      <c r="F75">
+        <v>-0.0230958201876682</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08434706382825684</v>
+        <v>0.08978320107671997</v>
       </c>
       <c r="C77">
-        <v>0.01546106499088927</v>
+        <v>0.008191906757065172</v>
       </c>
       <c r="D77">
-        <v>-0.09447885033330736</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1140161119128362</v>
+      </c>
+      <c r="E77">
+        <v>0.04362350547891938</v>
+      </c>
+      <c r="F77">
+        <v>-0.0329359637568109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1038160490802999</v>
+        <v>0.1011498128329193</v>
       </c>
       <c r="C78">
-        <v>0.04589628290546283</v>
+        <v>0.03930293860440451</v>
       </c>
       <c r="D78">
-        <v>-0.104223591089217</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1150191989677773</v>
+      </c>
+      <c r="E78">
+        <v>0.07678249866779997</v>
+      </c>
+      <c r="F78">
+        <v>-0.05147874141324579</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1639589831901992</v>
+        <v>0.163484636258334</v>
       </c>
       <c r="C79">
-        <v>0.02458943776251826</v>
+        <v>0.0235503220177091</v>
       </c>
       <c r="D79">
-        <v>-0.01317300297183285</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0116079213800197</v>
+      </c>
+      <c r="E79">
+        <v>0.04400529943864895</v>
+      </c>
+      <c r="F79">
+        <v>-0.01188342363208532</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08720777086332342</v>
+        <v>0.08305809820051761</v>
       </c>
       <c r="C80">
-        <v>0.002329172166854734</v>
+        <v>-0.000296166016665794</v>
       </c>
       <c r="D80">
-        <v>-0.04123009871561784</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05485948902957675</v>
+      </c>
+      <c r="E80">
+        <v>0.03564168833672657</v>
+      </c>
+      <c r="F80">
+        <v>0.01842762618106587</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.120163561594397</v>
+        <v>0.1178614267374894</v>
       </c>
       <c r="C81">
-        <v>0.03233435380929969</v>
+        <v>0.03235121050698028</v>
       </c>
       <c r="D81">
-        <v>-0.02303158584098606</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.0131107885217782</v>
+      </c>
+      <c r="E81">
+        <v>0.05442830581468158</v>
+      </c>
+      <c r="F81">
+        <v>-0.01964608648746262</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1660739883830293</v>
+        <v>0.1660336039039718</v>
       </c>
       <c r="C82">
-        <v>0.02529006005784627</v>
+        <v>0.0258634872169028</v>
       </c>
       <c r="D82">
-        <v>-0.01182030148943447</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.00085339507496164</v>
+      </c>
+      <c r="E82">
+        <v>0.02430135239237055</v>
+      </c>
+      <c r="F82">
+        <v>-0.08060574391731164</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06622692007107386</v>
+        <v>0.05812713376292572</v>
       </c>
       <c r="C83">
-        <v>0.006193483297709476</v>
+        <v>0.002994318305480474</v>
       </c>
       <c r="D83">
-        <v>-0.03354938906676663</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04902158603023241</v>
+      </c>
+      <c r="E83">
+        <v>0.002351814075958861</v>
+      </c>
+      <c r="F83">
+        <v>0.02815557965252906</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.0644172979034385</v>
+        <v>0.0584539895326957</v>
       </c>
       <c r="C84">
-        <v>0.01475366194475958</v>
+        <v>0.01096658067607718</v>
       </c>
       <c r="D84">
-        <v>-0.06508767223948753</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07244205826520932</v>
+      </c>
+      <c r="E84">
+        <v>0.01465547659569046</v>
+      </c>
+      <c r="F84">
+        <v>-0.01404046212977656</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1371946576734925</v>
+        <v>0.1350507370388488</v>
       </c>
       <c r="C85">
-        <v>0.02880895740913684</v>
+        <v>0.02873051558727516</v>
       </c>
       <c r="D85">
-        <v>-0.01675312621317522</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.007711602922915809</v>
+      </c>
+      <c r="E85">
+        <v>0.03495375847938632</v>
+      </c>
+      <c r="F85">
+        <v>-0.04693366153949775</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1015024111167288</v>
+        <v>0.09305565489365139</v>
       </c>
       <c r="C86">
-        <v>-0.003207622877429067</v>
+        <v>-0.006284269493648407</v>
       </c>
       <c r="D86">
-        <v>-0.0009433262593684089</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05082659629921375</v>
+      </c>
+      <c r="E86">
+        <v>0.2417551308960461</v>
+      </c>
+      <c r="F86">
+        <v>0.9040933035486818</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09987939304132222</v>
+        <v>0.09367660466208488</v>
       </c>
       <c r="C87">
-        <v>0.0284865398783173</v>
+        <v>0.01929754117735683</v>
       </c>
       <c r="D87">
-        <v>-0.06769216016338925</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09447116254484274</v>
+      </c>
+      <c r="E87">
+        <v>-0.05271420264512466</v>
+      </c>
+      <c r="F87">
+        <v>-0.04768993318341887</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06063932776235995</v>
+        <v>0.06009121397739106</v>
       </c>
       <c r="C88">
-        <v>0.005190292205901424</v>
+        <v>0.002321215888428854</v>
       </c>
       <c r="D88">
-        <v>-0.05334460334799827</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04952380051527146</v>
+      </c>
+      <c r="E88">
+        <v>0.02387092811849166</v>
+      </c>
+      <c r="F88">
+        <v>-0.01548668910354353</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.115902867673951</v>
+        <v>0.1261131020165885</v>
       </c>
       <c r="C89">
-        <v>0.002744032373078264</v>
+        <v>0.01274319746456182</v>
       </c>
       <c r="D89">
-        <v>0.2622609688230956</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2438168992573347</v>
+      </c>
+      <c r="E89">
+        <v>-0.08974894769460387</v>
+      </c>
+      <c r="F89">
+        <v>0.01219201425607069</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1332637837188396</v>
+        <v>0.1504333397005487</v>
       </c>
       <c r="C90">
-        <v>0.02226519779782657</v>
+        <v>0.03418154986120045</v>
       </c>
       <c r="D90">
-        <v>0.2739650741788868</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2701978335608055</v>
+      </c>
+      <c r="E90">
+        <v>-0.113421193220191</v>
+      </c>
+      <c r="F90">
+        <v>0.01283293642884506</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1201603918333422</v>
+        <v>0.1213456047933926</v>
       </c>
       <c r="C91">
-        <v>0.01953104320376869</v>
+        <v>0.02041175505928657</v>
       </c>
       <c r="D91">
-        <v>0.008645461466555463</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01729761370283818</v>
+      </c>
+      <c r="E91">
+        <v>0.0542583618876698</v>
+      </c>
+      <c r="F91">
+        <v>0.0003329345313187528</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.135710635599317</v>
+        <v>0.1454702049880991</v>
       </c>
       <c r="C92">
-        <v>0.01221397486565202</v>
+        <v>0.02456193824848158</v>
       </c>
       <c r="D92">
-        <v>0.3090534802716829</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2899053057940282</v>
+      </c>
+      <c r="E92">
+        <v>-0.1022540444927504</v>
+      </c>
+      <c r="F92">
+        <v>0.02163769263998532</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1366862608365507</v>
+        <v>0.15075103279412</v>
       </c>
       <c r="C93">
-        <v>0.01788803285881392</v>
+        <v>0.02900883305758922</v>
       </c>
       <c r="D93">
-        <v>0.2699871076821369</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.265608011388411</v>
+      </c>
+      <c r="E93">
+        <v>-0.07606883928975704</v>
+      </c>
+      <c r="F93">
+        <v>0.002126971556897211</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1344007236880805</v>
+        <v>0.127787878776365</v>
       </c>
       <c r="C94">
-        <v>0.02721750705686033</v>
+        <v>0.02513442612518934</v>
       </c>
       <c r="D94">
-        <v>-0.04275250633831926</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.03985110571396546</v>
+      </c>
+      <c r="E94">
+        <v>0.05611784636358954</v>
+      </c>
+      <c r="F94">
+        <v>-0.03596439964356251</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1257437620581963</v>
+        <v>0.1264873617360161</v>
       </c>
       <c r="C95">
-        <v>0.01009755025191965</v>
+        <v>0.003206061149535008</v>
       </c>
       <c r="D95">
-        <v>-0.07929959197652234</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09836898699398496</v>
+      </c>
+      <c r="E95">
+        <v>0.05343256723607599</v>
+      </c>
+      <c r="F95">
+        <v>0.004851826891673796</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1197352868908859</v>
+        <v>0.1117893266178336</v>
       </c>
       <c r="C96">
-        <v>-0.987044206102324</v>
+        <v>-0.9868728446758537</v>
       </c>
       <c r="D96">
-        <v>0.01166608205266919</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05099880064514377</v>
+      </c>
+      <c r="E96">
+        <v>0.05203520460295778</v>
+      </c>
+      <c r="F96">
+        <v>-0.04269623223116053</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.192844564739377</v>
+        <v>0.1937950041113833</v>
       </c>
       <c r="C97">
-        <v>-0.005574731005590717</v>
+        <v>-0.005814692070130615</v>
       </c>
       <c r="D97">
-        <v>0.01290600781804599</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0202946317837687</v>
+      </c>
+      <c r="E97">
+        <v>0.0219228514711335</v>
+      </c>
+      <c r="F97">
+        <v>0.08995341036262729</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1988054014086296</v>
+        <v>0.2065027236410769</v>
       </c>
       <c r="C98">
-        <v>0.01166050558472657</v>
+        <v>0.007386979362171804</v>
       </c>
       <c r="D98">
-        <v>-0.009844863104721897</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01345243322206886</v>
+      </c>
+      <c r="E98">
+        <v>-0.07474994043026569</v>
+      </c>
+      <c r="F98">
+        <v>0.09121885586134321</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05641609258167182</v>
+        <v>0.05490517681247766</v>
       </c>
       <c r="C99">
-        <v>-0.002017467952020964</v>
+        <v>-0.004334882838555177</v>
       </c>
       <c r="D99">
-        <v>-0.02248208301238334</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.0382665284436935</v>
+      </c>
+      <c r="E99">
+        <v>0.02128879730125911</v>
+      </c>
+      <c r="F99">
+        <v>-0.003116312164735496</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1429103248983608</v>
+        <v>0.1290144498800186</v>
       </c>
       <c r="C100">
-        <v>-0.03760803305145586</v>
+        <v>-0.0522751249521347</v>
       </c>
       <c r="D100">
-        <v>-0.4164300511012183</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3501326044546948</v>
+      </c>
+      <c r="E100">
+        <v>-0.8830860448585822</v>
+      </c>
+      <c r="F100">
+        <v>0.1678464866469436</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02619056212632671</v>
+        <v>0.02857613150907918</v>
       </c>
       <c r="C101">
-        <v>0.009656437763544364</v>
+        <v>0.008824664223364358</v>
       </c>
       <c r="D101">
-        <v>-0.02224787459861988</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03073159301128315</v>
+      </c>
+      <c r="E101">
+        <v>0.01324449877978883</v>
+      </c>
+      <c r="F101">
+        <v>0.01381786260989473</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
